--- a/Docs/pin_mappings.xlsx
+++ b/Docs/pin_mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Standard Account\Desktop\College\6th sem\System Integration\Project\Code versions\DroneProject\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A704C6-C4D0-4328-B360-A80147343413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8250B2A-9C39-4DFA-93EF-7AF3EC0C0880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,12 +234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -288,11 +282,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +744,7 @@
       <c r="F27" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
@@ -760,7 +753,7 @@
       <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
@@ -769,7 +762,7 @@
       <c r="F29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
@@ -781,7 +774,7 @@
       <c r="F33" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
@@ -790,7 +783,7 @@
       <c r="F34" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
@@ -811,7 +804,7 @@
       <c r="F41" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
@@ -820,7 +813,7 @@
       <c r="F42" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="10"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
@@ -829,7 +822,7 @@
       <c r="F43" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
@@ -838,7 +831,7 @@
       <c r="F44" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
@@ -850,7 +843,7 @@
       <c r="F47" t="s">
         <v>47</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E48" t="s">

--- a/Docs/pin_mappings.xlsx
+++ b/Docs/pin_mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Standard Account\Desktop\College\6th sem\System Integration\Project\Code versions\DroneProject\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8250B2A-9C39-4DFA-93EF-7AF3EC0C0880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6BAA90-391B-4C37-88E0-38ECA691BC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>TM4C Peripherals</t>
   </si>
@@ -178,6 +178,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Vcc</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Vcc</t>
+  </si>
+  <si>
+    <t>TXD</t>
+  </si>
+  <si>
+    <t>RXD</t>
+  </si>
+  <si>
+    <t>PE4 (UART05 RX)</t>
+  </si>
+  <si>
+    <t>PE5 (UART05 TX)</t>
   </si>
 </sst>
 </file>
@@ -200,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -286,6 +310,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H49"/>
+  <dimension ref="B1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,7 +884,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>45</v>
       </c>
@@ -862,6 +892,49 @@
         <v>15</v>
       </c>
       <c r="H49" s="4"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/pin_mappings.xlsx
+++ b/Docs/pin_mappings.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Standard Account\Desktop\College\6th sem\System Integration\Project\Code versions\DroneProject\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Standard Account\Desktop\College\6th sem\System Integration\Project\Code versions\From College\DroneProject\DroneProject\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6BAA90-391B-4C37-88E0-38ECA691BC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F792883-EABD-4FD3-BA19-FA14A206A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
   <si>
     <t>TM4C Peripherals</t>
   </si>
@@ -196,6 +197,27 @@
   </si>
   <si>
     <t>PE5 (UART05 TX)</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>PPM</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>Device</t>
   </si>
 </sst>
 </file>
@@ -218,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +307,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -294,11 +322,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -307,7 +452,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -315,6 +459,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,18 +769,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H56"/>
+  <dimension ref="B1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
@@ -774,7 +947,7 @@
       <c r="F27" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
@@ -794,7 +967,7 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -806,7 +979,7 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>50</v>
       </c>
@@ -815,7 +988,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>32</v>
       </c>
@@ -824,46 +997,116 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="38" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="J39" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="27"/>
+      <c r="L39" s="28"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E41" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E42" t="s">
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E43" t="s">
+      <c r="G42" s="13"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="13"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E44" t="s">
+      <c r="G43" s="13"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43" s="13"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>43</v>
       </c>
@@ -873,9 +1116,9 @@
       <c r="F47" t="s">
         <v>47</v>
       </c>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>44</v>
       </c>
@@ -921,7 +1164,7 @@
       <c r="F55" t="s">
         <v>55</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -932,12 +1175,414 @@
       <c r="F56" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="11" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="J39:L39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47B7426-BCEE-4409-B580-D71425C5C88C}">
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="F30" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:H30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>